--- a/radar_nis_data.xlsx
+++ b/radar_nis_data.xlsx
@@ -19,16 +19,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 percentile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -47,11 +59,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -175,7 +200,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -237,6 +262,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1003,11 +1029,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98619222"/>
-        <c:axId val="83773389"/>
+        <c:axId val="29998457"/>
+        <c:axId val="4048593"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98619222"/>
+        <c:axId val="29998457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,14 +1106,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83773389"/>
+        <c:crossAx val="4048593"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83773389"/>
+        <c:axId val="4048593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1166,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1169,7 +1195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98619222"/>
+        <c:crossAx val="29998457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1227,8 +1253,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="733320" y="38160"/>
-        <a:ext cx="11940480" cy="3432960"/>
+        <a:off x="720000" y="38160"/>
+        <a:ext cx="11762640" cy="3432600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1246,16 +1272,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +1423,24 @@
       <c r="A28" s="0" t="n">
         <v>1.47523</v>
       </c>
+      <c r="D28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">STDEV(A1:A249)</f>
+        <v>2.25113300211128</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>3.81603</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">2*E28</f>
+        <v>4.50226600422256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
